--- a/data/trans_orig/PESO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PESO-Edad-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Peso medio en kg</t>
+          <t>Peso medio en kg (tasa de respuesta: 98,23%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/PESO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PESO-Edad-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>72,74</t>
+          <t>73,84</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>60,49</t>
+          <t>61,14</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>66,85</t>
+          <t>67,39</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>70,38; 75,78</t>
+          <t>71,0; 77,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>71,62; 77,53</t>
+          <t>71,61; 77,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>69,98; 74,16</t>
+          <t>69,99; 74,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>58,99; 62,15</t>
+          <t>59,49; 63,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>60,65; 66,11</t>
+          <t>61,14; 66,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>58,51; 63,09</t>
+          <t>58,49; 63,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>65,22; 68,76</t>
+          <t>65,78; 69,71</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>67,56; 72,26</t>
+          <t>67,47; 71,74</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>64,92; 68,32</t>
+          <t>64,88; 68,25</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>76,08</t>
+          <t>76,9</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>65,04</t>
+          <t>64,85</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>70,26</t>
+          <t>70,87</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>74,46; 78,08</t>
+          <t>74,68; 79,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>75,77; 79,72</t>
+          <t>75,81; 79,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>76,11; 79,87</t>
+          <t>76,2; 79,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>63,19; 67,34</t>
+          <t>62,97; 67,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>62,04; 66,25</t>
+          <t>61,98; 66,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>60,76; 64,34</t>
+          <t>60,81; 64,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>68,82; 71,78</t>
+          <t>69,35; 72,6</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>66,53; 71,99</t>
+          <t>66,54; 72,08</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>68,52; 71,47</t>
+          <t>68,58; 71,37</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>82,54</t>
+          <t>81,43</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>65,57</t>
+          <t>67,17</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>73,69</t>
+          <t>74,37</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>80,78; 84,88</t>
+          <t>79,77; 83,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,47; 82,96</t>
+          <t>79,42; 82,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>76,95; 80,58</t>
+          <t>77,07; 80,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>64,17; 67,12</t>
+          <t>65,26; 69,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>66,44; 68,99</t>
+          <t>66,51; 68,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>62,2; 66,26</t>
+          <t>62,25; 66,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>72,4; 75,22</t>
+          <t>73,03; 75,8</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>73,13; 75,42</t>
+          <t>73,07; 75,45</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>70,33; 73,23</t>
+          <t>70,23; 73,13</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>83,74</t>
+          <t>83,65</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>66,38</t>
+          <t>66,4</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>74,97</t>
+          <t>75,04</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>82,36; 85,12</t>
+          <t>82,06; 85,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>82,52; 96,17</t>
+          <t>82,5; 96,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>80,09; 84,05</t>
+          <t>80,16; 84,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>65,04; 68,04</t>
+          <t>65,06; 68,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>67,31; 69,72</t>
+          <t>67,29; 69,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>62,58; 66,13</t>
+          <t>62,52; 66,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>73,85; 76,18</t>
+          <t>73,81; 76,38</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>75,23; 91,05</t>
+          <t>75,27; 90,62</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>71,61; 74,71</t>
+          <t>71,42; 74,84</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>80,59</t>
+          <t>80,26</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>65,76</t>
+          <t>66,13</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>72,5</t>
+          <t>72,91</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>79,28; 82,07</t>
+          <t>79,0; 81,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>82,23; 85,08</t>
+          <t>82,28; 85,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,17 +1299,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>80,15; 84,28</t>
+          <t>80,04; 84,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>64,65; 66,84</t>
+          <t>64,99; 67,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>68,47; 70,71</t>
+          <t>68,49; 70,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>65,96; 69,36</t>
+          <t>66,0; 69,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>71,46; 73,53</t>
+          <t>71,86; 73,94</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>75,88; 77,84</t>
+          <t>75,85; 77,91</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>72,85; 75,7</t>
+          <t>72,77; 75,66</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>79,08</t>
+          <t>78,84</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>66,24</t>
+          <t>66,16</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>72,26</t>
+          <t>72,03</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1424,12 +1424,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>77,85; 80,4</t>
+          <t>77,52; 80,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>78,44; 81,43</t>
+          <t>78,44; 81,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,17 +1439,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>79,62; 84,49</t>
+          <t>79,75; 84,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>65,04; 67,55</t>
+          <t>64,94; 67,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>70,06; 80,12</t>
+          <t>70,06; 80,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>62,51; 66,17</t>
+          <t>62,3; 66,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>71,18; 73,17</t>
+          <t>70,86; 73,12</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>74,48; 80,11</t>
+          <t>74,49; 80,16</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>70,49; 74,14</t>
+          <t>70,54; 74,12</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>75,91</t>
+          <t>75,82</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>65,79</t>
+          <t>65,17</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>69,69</t>
+          <t>69,26</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>74,66; 77,33</t>
+          <t>74,51; 77,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>75,17; 77,75</t>
+          <t>75,21; 77,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1579,17 +1579,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>71,95; 76,01</t>
+          <t>71,95; 75,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>64,53; 67,07</t>
+          <t>64,01; 66,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>67,51; 69,65</t>
+          <t>67,58; 69,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>63,17; 66,46</t>
+          <t>63,25; 66,39</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>68,81; 70,72</t>
+          <t>68,26; 70,19</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>70,93; 72,64</t>
+          <t>70,96; 72,67</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>67,04; 69,74</t>
+          <t>66,99; 69,74</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>79,63</t>
+          <t>79,49</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>65,57</t>
+          <t>65,62</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>72,06</t>
+          <t>72,23</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
@@ -1704,12 +1704,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>79,02; 80,23</t>
+          <t>78,78; 80,15</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>79,92; 88,75</t>
+          <t>79,9; 89,19</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1719,17 +1719,17 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>78,11; 79,64</t>
+          <t>78,09; 79,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>65,01; 66,12</t>
+          <t>65,06; 66,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>67,42; 72,81</t>
+          <t>67,48; 72,79</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1739,17 +1739,17 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>63,44; 64,96</t>
+          <t>63,45; 64,92</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>71,61; 72,49</t>
+          <t>71,7; 72,75</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>73,79; 79,72</t>
+          <t>73,84; 80,46</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>70,59; 71,79</t>
+          <t>70,65; 71,84</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/PESO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PESO-Edad-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>74,25</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>72,03</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>75,21</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>73,84</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>74,33</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>75,21</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>72,03</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>63,2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>60,52</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>59,43</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>61,14</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>63,3</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>59,43</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>60,52</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>69,03</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>66,41</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>67,33</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>67,39</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>69,58</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>67,33</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>66,41</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>71,69; 77,2</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>69,99; 74,05</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>73,58; 77,07</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>71,0; 77,27</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>71,61; 77,49</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>73,58; 77,07</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>69,99; 74,05</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>61,25; 66,2</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>58,49; 63,22</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>58,28; 60,81</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>59,49; 63,29</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>61,14; 66,69</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>58,28; 60,81</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>58,49; 63,22</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>67,11; 71,18</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>64,88; 68,25</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>66,14; 68,64</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>65,78; 69,71</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>67,47; 71,74</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>66,14; 68,64</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>64,88; 68,25</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>77,33</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>77,89</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>78,56</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>76,9</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>77,72</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>78,56</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>77,89</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>65,57</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>62,46</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>63,07</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>64,85</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>64,32</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>63,07</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>62,46</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>71,22</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>69,97</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>70,23</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>70,87</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>69,99</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>70,23</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>69,97</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>75,54; 79,14</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>76,2; 79,93</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>76,98; 79,95</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>74,68; 79,35</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>75,81; 79,83</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>76,98; 79,95</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>76,2; 79,93</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>64,16; 67,14</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>60,81; 64,33</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>61,69; 64,87</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>62,97; 67,12</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>61,98; 66,4</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>61,69; 64,87</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>60,81; 64,33</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>69,82; 72,68</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>68,58; 71,37</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>69,01; 71,44</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>69,35; 72,6</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>66,54; 72,08</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>69,01; 71,44</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>68,58; 71,37</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>80,87</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>78,8</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>81,7</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>81,43</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>81,07</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>81,7</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>78,8</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>68,02</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>64,02</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>64,55</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>67,17</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>67,67</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>64,55</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>64,02</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>74,4</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>71,67</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>73,13</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>74,37</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>74,24</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>73,13</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>71,67</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>79,17; 82,52</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>77,07; 80,58</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>80,33; 83,22</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>79,77; 83,3</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>79,42; 82,9</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>80,33; 83,22</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>77,07; 80,58</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>66,9; 69,26</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>62,25; 66,39</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>63,29; 65,88</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>65,26; 69,02</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>66,51; 68,99</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>63,29; 65,88</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>62,25; 66,39</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>73,34; 75,51</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>70,23; 73,13</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>71,98; 74,3</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>73,03; 75,8</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>73,07; 75,45</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>71,98; 74,3</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>70,23; 73,13</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>83,07</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>82,15</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>82,38</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>83,65</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>89,65</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>82,38</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>82,15</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>68,81</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>64,15</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>65,58</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>66,4</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>68,61</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>65,58</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>64,15</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>75,8</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>73,17</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>74,23</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>75,04</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>81,44</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>74,23</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>73,17</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>81,66; 84,39</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>80,16; 84,21</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>81,19; 83,87</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>82,06; 85,23</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>82,5; 96,46</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>81,19; 83,87</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>80,16; 84,21</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>67,69; 69,89</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>62,52; 66,11</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>64,51; 66,85</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>65,06; 68,03</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>67,29; 69,73</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>64,51; 66,85</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>62,52; 66,11</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>74,83; 76,7</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>71,42; 74,84</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>73,22; 75,44</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>73,81; 76,38</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>75,27; 90,62</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>73,22; 75,44</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>71,42; 74,84</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>83,48</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>82,03</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>83,19</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>80,26</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>83,73</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>83,19</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>82,03</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>69,89</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>67,5</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>66,48</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>66,13</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>69,57</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>66,48</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>67,5</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>76,74</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>74,16</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>74,51</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>72,91</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>76,84</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>74,51</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>74,16</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>82,14; 84,9</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>80,04; 84,06</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>81,67; 84,83</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>79,0; 81,7</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>82,28; 85,22</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>81,67; 84,83</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>80,04; 84,06</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>68,89; 71,0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>66,0; 69,19</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>65,17; 67,85</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>64,99; 67,41</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>68,49; 70,65</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>65,17; 67,85</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>66,0; 69,19</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
+          <t>75,75; 77,76</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>72,77; 75,66</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>73,41; 75,84</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
           <t>71,86; 73,94</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>75,85; 77,91</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>73,41; 75,84</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>72,77; 75,66</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>79,83</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>81,92</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>80,03</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>78,84</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>79,88</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>80,03</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>81,92</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>70,69</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>64,41</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>67,41</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>66,16</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>75,96</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>67,41</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>64,41</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
+          <t>74,93</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>72,27</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>73,68</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>72,03</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>77,19</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>73,68</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>72,27</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>78,48; 81,35</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>79,75; 84,77</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>79,05; 81,09</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>77,52; 80,24</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>78,44; 81,36</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>79,05; 81,09</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>79,75; 84,77</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>69,61; 71,92</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>62,3; 66,06</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>66,43; 68,57</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>64,94; 67,54</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>70,06; 80,14</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>66,43; 68,57</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>62,3; 66,06</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
+          <t>73,99; 75,96</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>70,54; 74,12</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>72,8; 74,6</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
           <t>70,86; 73,12</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>74,49; 80,16</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>72,8; 74,6</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>70,54; 74,12</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>76,52</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>73,89</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>74,96</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>75,82</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>76,51</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>74,96</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>73,89</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>68,66</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>64,8</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>65,42</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>65,17</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>68,6</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>65,42</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>64,8</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
+          <t>71,82</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>68,33</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>69,34</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
           <t>69,26</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>71,79</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>69,34</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>68,33</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>75,17; 77,82</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>71,95; 75,93</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>74,0; 75,99</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>74,51; 77,17</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>75,21; 77,79</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>74,0; 75,99</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>71,95; 75,93</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>67,57; 69,63</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>63,25; 66,39</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>64,41; 66,42</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>64,01; 66,13</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>67,58; 69,52</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>64,41; 66,42</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>63,25; 66,39</t>
-        </is>
-      </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
+          <t>70,99; 72,71</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>66,99; 69,74</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>68,57; 70,12</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
           <t>68,26; 70,19</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>70,96; 72,67</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>68,57; 70,12</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>66,99; 69,74</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>80,11</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>78,89</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>80,06</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>79,49</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>82,5</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>80,06</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>78,89</t>
-        </is>
-      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
+          <t>68,09</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>64,19</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>64,75</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
           <t>65,62</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>69,07</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>64,75</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>64,19</t>
-        </is>
-      </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
+          <t>73,92</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>71,2</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>72,16</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
           <t>72,23</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>75,61</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>72,16</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>71,2</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>79,43; 80,77</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>78,09; 79,67</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>79,53; 80,61</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>78,78; 80,15</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>79,9; 89,19</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>79,53; 80,61</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>78,09; 79,67</t>
-        </is>
-      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
+          <t>67,56; 68,59</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>63,45; 64,92</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>64,23; 65,23</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
           <t>65,06; 66,23</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>67,48; 72,79</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>64,23; 65,23</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>63,45; 64,92</t>
-        </is>
-      </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
+          <t>73,43; 74,35</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>70,65; 71,84</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>71,73; 72,6</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
           <t>71,7; 72,75</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>73,84; 80,46</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>71,73; 72,6</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>70,65; 71,84</t>
         </is>
       </c>
     </row>
